--- a/data/outputs/excel/score_explanations_ja.xlsx
+++ b/data/outputs/excel/score_explanations_ja.xlsx
@@ -494,31 +494,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>活動内容が具体的で、手順や教材、評価方法まで詳細に記述されている / スキル育成の項目が多岐にわたり、教育的意義が明確に示されている / 創造的なロックパズルと実際の製作活動が組み合わさり、実用性と独創性を兼ね備えている</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[活動内容の具体性]「Mục tiêu: Củng cố và khắc sâu kiến thức về cấu tạo số có sáu chữ số.」
-[活動内容の具体性]「Thực hành – Vận dụng I. Tiến trình baì dạy Khởi động: Trò chơi “Đi tìm ẩn số”」
-[スキル・能力の育成]「Kỹ năng tư duy logic, phân tích dữ kiện và giao tiếp hợp tác nhóm.」</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[活動内容の具体性]「目標: 6桁の数の構造に関する知識を強化し、深めること。」
-[活動内容の具体性]「実践 – I. 進行プロセスの導入: ゲーム「隠れた数を探せ」」
-[スキル・能力の育成]「論理的思考力、事実分析力、そしてチーム協働コミュニケーションスキル。」</t>
-        </is>
-      </c>
+          <t>定義が明確で正確に述べられている / 学生への影響が複数の具体例で詳細に説明されている / 論理的構成は整っているが、教育的意義の深掘りがやや不足</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -538,7 +526,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -546,21 +534,21 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>定義が明確で正確に述べられている / 複数の具体例が詳細に示され、学生への影響が豊富に説明されている / 論理的な構成と一貫性が保たれ、教育的意義が十分に伝わっている</t>
+          <t>具体的で実用的な活動計画を示している / スキル育成の説明が詳細かつ明確 / 教育的意義がはっきりと示されている</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[definition]「Khái niệm “Học tập qua trải nghiệm”: Là một phương pháp」
-[examples]「Tăng hứng thú và động lực học tập: Khi học sinh」
-[logic]「Môn Khoa học – Lớp 4 (Bộ sách Chân trời sáng tạo)」</t>
+          <t>[観点1]「実践 – Vận dụng I. Mục tiêu: Củng cố và khắc sâu kiến thức」
+[観点2]「Kỹ năng tư duy logic và giải quyết vấn đề」
+[観点2]「Kỹ năng làm việc nhóm và giao tiếp」</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[definition]「体験を通じた学習」の概念：それは一つの方法です
-[examples]「学習への興味と動機を高める：生徒が」
-[logic]「科学科 – 4年生（『創造の地平』シリーズ）」</t>
+          <t>[観点1]「実践 – 応用 I. 目標: 知識を強化し深めること」
+[観点2]「論理的思考力と問題解決能力」
+[観点2]「グループワークとコミュニケーション能力」</t>
         </is>
       </c>
     </row>
@@ -586,25 +574,25 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>授業計画が詳細で実践的 / 質問が具体的で思考を促す / 材料選定が適切で実用的</t>
+          <t>指導計画が具体的で授業プロセスが明確に示されているが、材料・道具の詳細がやや不足。 / 質問は具体的で思考を促すが、実験に必要な道具の詳細説明が欠けている。 / 実践的な指導と質問は良好だが、材料・道具面でやや抽象的なため4点と判断。</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[instruction plan]「Mục tiêu: Học sinh hiểu nguyên lý giảm va chạm」
-[questions]「Nếu thả viên phấn từ tầng 2, điều gì?」
-[materials]「Sử dụng công cụ đơn giản, tạo thiết bị.」</t>
+          <t>[指導計画]「Kế hoạch dạy học: "Chiếc dù kỳ diệu" 1. Mục tiêu bài học」
+[質問]「Nếu thả rơi phiên phấn từ độ cao 3m mà không có gì bảo vệ」
+[材料・道具]「Học sinh sử dụng các công cụ đơn giản, hãy tạo ra thiết bị giúp viên phấn không bị vỡ」</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[instruction plan]「目標：生徒が衝突減衰の原理を理解する」
-[questions]「2階から粉末を落とすとどうなる？」
-[materials]「簡単な道具を使い、装置を作る。」</t>
+          <t>指導計画: 「奇跡の傘」学習目標  
+質問: 3mの高さから何も保護することなく粉筆を落とすとどうなるか  
+材料・道具: 生徒は単純な道具を用いて、粉筆が割れないようにする装置を作成してください</t>
         </is>
       </c>
     </row>
@@ -634,21 +622,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>回答は不安軽減と創造性促進の両方を具体的に示している / 複数の実行可能なサポート手法（例示、質問、試行錯誤、称賛）が網羅されている / 例を直接見せる以外の工夫（ヒントやオープン質問）が明確に提示されている</t>
+          <t>回答は不安軽減と創造性促進の両方に対して多角的かつ具体的な支援策を提示している / 例示・ヒント・フィードバックを組み合わせ、実際に行える実践方法が明確に示されている</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>[具体性]「Chuẩn bị nhiều ví dụ đa dạng」
-[不安軽減]「Gợi ý bằng câu hỏi mở」
-[実行可能性]「Khuyến khích học sinh thử làm một chi tiết nhỏ trước」</t>
+[実行可能性]「Gợi ý bằng câu hỏi mở... Khi học sinh thử nghiệm và sửa chữa」
+[不安軽減]「Nhấn mạnh rằng “Mình xem mẫu để hiểu cách bắt đầu, nhưng sản phẩm của em sẽ mang dấu ấn riêng”」</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[具体性]「多様な例をたくさん用意する」
-[不安軽減]「オープンエンドの質問で提案する」
-[実行可能性]「生徒にまず小さな詳細を試すよう促す」</t>
+          <t>- 具体性「多様な例を準備する」
+- 実行可能性「オープンな質問で提案し、生徒が実験し、修正するとき」
+- 不安軽減「『例を参考にして始める方法を理解しますが、あなたの製品は独自性を持ちます』と強調する」</t>
         </is>
       </c>
     </row>
@@ -674,25 +662,25 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>活動は創造的で実現可能性が高く、リサイクルの意義が明確に示されている / 製品作成のプロセスが具体的かつ詳細に記述され、教育的意義も十分に伝わっている / 授業設計は学年・科目に適しており、実践的な学習体験を提供できる</t>
+          <t>活動は創造的で実現可能、具体的な材料と手順を示している / リサイクルの重要性と環境保護のメッセージが明確に表現されている / トピックと授業設計は学年に適しており、実践的な学習を促進する / ただしプロセス詳細がやや簡略化されている点が満点を妨げる</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[創造性と実現可能性]「Sáng tạo các mô hình phương tiện giao thông &amp; con vật từ lịch để bàn, bìa tạp chí hoặc thùng carton đã qua sử dụng.」
-[リサイクルの意義]「Tái chế, bảo vệ môi trường và ứng dụng vật liệu tái sử dụng vào sáng tạo.」
-[プロセス詳細]「Học sinh sẽ sử dụng giấy bìa cứng, bìa tạp chí, lịch để bàn đã qua sử dụng, thùng giấy carton cũ kết hợp với các vật liệu tái chế khác để thiết kế và lắp ghép mô hình.」</t>
+          <t>[創造性と実現可能性]「Sáng tạo các mô hình phương tiện giao thông &amp; con vật từ lịch để bàn, bìa tạp chí hoặc thùng carton đã qua sử dụng」
+[リサイクルの意義伝達]「Tái chế, bảo vệ môi trường và ứng dụng vật liệu tái sử dụng vào sáng tạo」
+[製品作成プロセス詳細]「Học sinh sẽ sử dụng giấy bìa cứng, bìa tạp chí, lịch để bàn đã qua sử dụng, thùng giấy carton cũ kết hợp với các vật liệu tái chế khác để thiết kế và lắp ghép mô hình」</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[創造性と実現可能性]「デスクカレンダー、雑誌の表紙、または使用済みの段ボール箱から、交通手段と動物のモデルを創造する。」
-[リサイクルの意義]「リサイクルし、環境を保護し、再利用可能な素材を創造に応用する。」
-[プロセス詳細]「生徒は、厚紙、雑誌の表紙、使用済みのデスクカレンダー、古い段ボール箱を他のリサイクル素材と組み合わせて、モデルを設計・組み立てる。」</t>
+          <t>[創造性と実現可能性]「デスクカレンダー、雑誌用紙、または使用済みのダンボール箱などから、交通機関や動物のモデルを創造する。」
+[リサイクルの意義伝達]「リサイクル、環境保護、そして再利用可能な素材を創造に活用する。」
+[製品作成プロセス詳細]「生徒たちは、硬質紙、雑誌用紙、使用済みのデスクカレンダー、古くなったダンボール箱、およびその他の再利用可能な素材を組み合わせて、モデルを設計・組み立てます。」</t>
         </is>
       </c>
     </row>
@@ -722,21 +710,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>定義が明確で正確に説明されている / 具体例が1つだけだが詳細に記述され、影響が具体的に示されている / 論理的で一貫性があるが、複数例が不足しているため4点</t>
+          <t>定義は明確で正確に述べられているため5点 / 学生への影響は具体例が1つだけで、詳細はあるが複数例が不足しているため4点</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[定義]「học tập qua trải nghiệm là phương pháp học tập mà học sinh được trực tiếp tham gia vào các hoạt động thực tế」
-[例]「Học sinh trồng cây từ hạt đậu」
-[影響]「Các em chủ động quan sát hơn, ghi nhận kết quả tốt hơn」</t>
+          <t>[定義]「trực tiếp tham gia vào các hoạt động thực tế」
+[影響]「Học sinh trồng cây từ hạt đậu. Các em được tự tay gieo hạt」
+[影響]「các em chủ động quan sát hơn, ghi nhận kết quả tốt hơn」</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[定義]「体験を通じた学習は、学生が実際の活動に直接参加する学習方法です」
-[例]「学生が豆の種から木を育てる」
-[影響]「子どもたちはより積極的に観察し、結果をよりよく記録します」</t>
+          <t>{'key_evidence': '[定義]「直接に実際の活動に参加する」\n[影響]「生徒たちは豆の種から植物を育てます。彼らは自分で種をまくことができます」\n[影響]「彼らはより積極的に観察し、結果の記録もより良くします」}</t>
         </is>
       </c>
     </row>
@@ -766,21 +752,19 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>活動内容が実用的で、授業開始時に行う具体的な流れが明確に示されている / 育成したいスキルが具体的に列挙され、教育的意義もSTEAMの観点から説明されている / 独創性はやや一般的だが、実際の授業で実行可能で効果が期待できる点が評価される</t>
+          <t>活動内容が具体的で実用的に提示されている / 育成するスキルが明確に示され、教育的意義が伝わる / 創造性はやや不足だが、実践的な提案として十分に機能している</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[活動内容の具体性]「Đây là thời gian học sinh tôi rất yêu thích」
-[育成スキル]「Kỹ năng giao tiếp và biểu đạt ý tưởng: Các em được trình bày suy nghĩ trước tập thể.」
-[育成スキル]「Tính chủ động và sáng tạo: Khi các em tự nghĩ ra giải pháp để lớp học vui hơn」</t>
+          <t>[活動内容]「mỗi học sinh sẽ lần lượt chia sẻ một điều thú vị, một khó khăn trong học tập, hoặc một ý tưởng nhỏ giúp lớp học trở nên vui hơn」
+[スキル育成]「Học sinh phát triển nhiều kỹ năng quan trọng như: Kỹ năng giao tiếp và biểu đạt ý tưởng」
+[教育的意義]「đúng với tinh thần giáo dục STEAM và phát triển năng lực học sinh」</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[活動内容の具体性]「これは私の生徒がとても好きな時間です」
-[育成スキル]「コミュニケーションとアイデア表現のスキル：生徒たちは集団の前で自分の考えを発表するように求められます。」
-[育成スキル]「主体性と創造性：生徒たちが授業をもっと楽しくするために自ら解決策を考えるとき</t>
+          <t>[活動内容]「生徒たちは順番に、面白いことや学習の困難、クラスをより楽しくする小さなアイデアなどを共有します。」\n[スキル育成]「生徒たちは、コミュニケーション能力やアイデアを表現する能力などの重要なスキルを育てます。」\n[教育的意義]「STEAM教育の精神に合致し、生徒の能力の育成を促進します。」</t>
         </is>
       </c>
     </row>
@@ -806,25 +790,25 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>指導計画が具体的で実践的 / 質問が具体的で思考を促す / 材料選定が適切で実用的</t>
+          <t>授業計画が具体的でグループ活動と段階的手順を示している / 投げかける質問は具体的で生徒の思考を促す / 使用材料は実践的で多様性がある</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[指導計画]「Khởi động và gợi mở vấn đề」
-[投げかける質問]「Tại sao viên phấn lại dễ vỡ?」
-[使用する材料や道具]「giấy, bìa cứng, dây thun」</t>
+          <t>[観点1]「Khởi động và gợi mở vấn đề: Tôi cùng học sinh giải mã các câu hỏi sau:」
+[観点2]「Các em đã bao giờ làm rơi viên phấn chưa?」
+[観点2]「Mỗi nhóm sẽ được cung cấp các vật liệu đơn giản như: giấy, bìa cứng, dây thun, ống hút, xốp mềm, băng dính, ni-long」</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[指導計画]「問題の起動と提示」
-[投げかける質問]「なぜ粉は壊れやすいのか？」
-[使用する材料や道具]「紙、厚紙、ゴムバンド」</t>
+          <t>[観点1]「Khởi động và gợi mở vấn đề: Tôi cùng học sinh giải mã các câu hỏi sau:」  
+[観点2]「以前、粉筆を落としたことはありますか？」  
+[観点2]「各グループには、紙、ハードボード、エラスティックバンド、ストロー、ソフトフォーム、テープ、プラスチックシートなどの簡易な材料が提供されます」</t>
         </is>
       </c>
     </row>
@@ -854,21 +838,18 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>回答は不安解消と創造性促進の両方を具体的に示している / 複数の実行可能なサポート手法（例示、試行錯誤、仲間演示、個別称賛）が挙げられている / 例を直接見せる以外の工夫（安全環境、自由な発想の奨励）が明確に示されている</t>
+          <t>具体的に多様な例を提示しつつ、個別創造を尊重する方法を示した / 不安緩和のために安全な試行錯誤環境と、個人のアイデアを肯定する支援を複数提案 / 実行可能な手法（例示の多様化、同級生のデモ、フィードバック強化）が明確に示されている</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[不安解消]「Đây là một vài ví dụ để các em tham khảo」
-[不安解消]「Tạo môi trường an toàn và khuyến khích thử sai」
-[創造性促進]「Đa dạng hóa ví dụ và tài liệu tham khảo」</t>
+          <t>[具体性と実行可能性]「Tôi sẽ nói với học sinh: “Đây là một vài ví例 để các em tham khảo nhưng mỗi bạn đều có thể có một cách làm khác”」
+[不安緩和]「Tạo môi trường an toàn và khuyến khích thử sai: Tôi luôn nhấn mạnh rằng trong hoạt động nghệ thuật, không có đúng – sai tuyệt đối」</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[不安解消]「これは皆さんが参考にできるいくつかの例です」
-[不安解消]「安全な環境を作り、失敗を試すことを奨励する」
-[創造性促進]「例と参考資料を多様化する」</t>
+          <t>[具体性と実行可能性]「私は生徒たちに『これは参考になる例ですが、それぞれの生徒が異なる方法で取り組むことができます』と伝えます」\n[不安緩和]「安全な環境を整え、失敗を恐れずに試行錯誤を促す: 私は常に芸術活動において絶対的な正誤はないことを強調しています」</t>
         </is>
       </c>
     </row>
@@ -898,21 +879,19 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>活動は創造的で実現可能、具体的な材料と手順を示している / リサイクルの意義が質問と学習目標で明確に伝わっている / 授業設計は学年・科目に適合し、環境教育と創造性を統合している</t>
+          <t>創造的かつ実現可能なリサイクル製品の設計が具体的に示されている。 / 製造プロセスと材料が詳細に記述され、教育的意義と環境意識が明確に伝わっている。</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[創造性と実現可能性]「Làm hộp bút từ chai nhựa cũ」
-[リサイクルの意義伝達]「Học sinh hiểu được lợi ích của việc tái sử dụng rác thải nhựa」
-[製品作成プロセス詳細]「Liệt kê vật liệu: chai nhựa, kéo, băng keo màu, khóa kéo, nút nhựa」</t>
+          <t>[創造性・実現可能性]「Làm hộp bút từ chai nhựa cũ」
+[詳細度]「Liệt kê vật liệu: chai nhựa, kéo, băng keo màu」
+[リサイクルの意義]「GV đặt câu hỏi: “Mỗi năm chúng ta thải ra rất nhiều chai nhựa」</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[創造性と実現可能性]「古いプラスチックボトルを使ってペンケースを作る」
-[リサイクルの意義伝達]「生徒はプラスチック廃棄物を再利用することの利点を理解する」
-[製品作成プロセス詳細]「材料を列挙: プラスチックボトル、はさみ、カラーバンド、ジッパー、プラスチックボタン」</t>
+          <t>[創造性・実現可能性]「古くなったプラスチックのボトルを使ってペンの箱を作る」\n[詳細度]「材料を列挙: プラスチックボトル、ハサミ、カラーフィルム」\n[リサイクルの意義]「教師が質問をします: “毎年、私たちは非常に多くのプラスチックボトルを排出しています”」</t>
         </is>
       </c>
     </row>
@@ -985,15 +964,15 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>回答は、ロックパズルを用いた数の構造理解から、実際にロックを設計・製作するまでの一連の流れを明確に示している。各段階での具体的な指示や評価基準が記載され、活動の実用性と独創性が高い。さらに、論理的思考、問題解決、協働、創造性、技術操作といった多様なスキルを詳細に列挙し、教育的意義を具体的に説明しているため、5点の基準を満たす。</t>
+          <t>回答は「体験学習」の定義を具体的に説明し、学生の興味・モチベーション向上、批判的思考、協働・コミュニケーションスキルの発達、知識の実践的結びつきといった多面的な影響を示している。特に科学授業の具体例は説得力を高めている。論理的で一貫性があるが、教育的意義や学習成果への長期的インパクトについての分析がもう少し深くなると5点満点に近づく。</t>
         </is>
       </c>
     </row>
@@ -1015,7 +994,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -1023,7 +1002,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>受験者は「体験学習」の定義を「学習者が実際に体験し、実践・探究・反省を通じて学ぶ方法」と明確に示し、定義の正確さを確保した。さらに、学習者の興味・動機付け、批判的思考、協働・コミュニケーションスキルの向上といった具体的な影響を挙げ、科学授業での実際の実験活動を例に詳細に説明した。論理的に定義→影響→具体例という順序で構成され、全体の一貫性が高い。教育的意義として、知識の実践化と記憶の定着を強調し、体験学習の価値を十分に伝えている。これらの点から5点と評価した。</t>
+          <t>受験者はロックパズルを用いた実践的な授業を、具体的な段階と手順で示している。各フェーズ（ゲーム開始、観察・議論、設計・制作、評価）が明瞭に描かれ、活動全体の流れが一目で把握できる。また、論理的思考、仮説検証、チームワーク、創造的設計、計算スキルといった複数のスキルが明確に列挙され、各スキルがどのように育成されるかも細かく記述。さらに、数学知識の実生活への応用や協働学習の価値を教育的意義として具体例とともに示しており、全体として優れた回答と評価できる。</t>
         </is>
       </c>
     </row>
@@ -1049,11 +1028,11 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>受験者の回答は、授業計画が具体的に示され、目的・活動・評価が明確に記述されている。質問は具体的で、学生の思考を誘導し、材料は実際に使えるものが挙げられている。全体として、STEAM教育の実践に即した優れた指導案となっている。</t>
+          <t>回答は指導計画を明確に示し、授業プロセスを具体的に記述している。目標設定から準備、実践、評価までの流れが詳細に説明されている点が高く評価できる。ただし、材料・道具に関しては「簡単な工具を使用し、チャーコの落下を防ぐ装置を作る」といった一般的な記述に留まっており、実際に使用する具体的な素材（ナイロン、棒、ワイヤー等）や手順の詳細が不足している。質問は具体的かつ思考を刺激する内容が多く、授業中の指導に十分活用できる。総合的に見て、指導計画と質問は十分に良好であるが、材料・道具の詳細がやや不足している点を除けば4点と判断できる。</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1062,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>受験者の回答は、STEAM活動における生徒の不安を和らげつつ創造性を促す具体的かつ実践的な支援方法を豊富に示している。まず、複数の多様な例を用意し、単なる模範ではなくヒントとして位置づけることで、模倣への恐怖を減らし個性を尊重する姿勢を明示している。次に、オープンな質問で生徒のアイデアを引き出し、試行錯誤を奨励することで創造的思考を刺激している。さらに、試作段階で小さな要素を作るよう促し、失敗を恐れずに学習できる環境を整えている。最後に、努力とアイデアを称賛することで自己肯定感を高め、継続的な創造活動へとつなげている。これらの要素はすべて具体的で実行可能であり、例を直接見せる以外の工夫も明確に示されているため、5点の評価に相当する。</t>
+          <t>受験者は生徒の不安を和らげつつ創造性を促すための具体策を豊富に挙げており、例示以外にもオープンクエスチョン、試作・修正、励ましの声掛けなど多面的なアプローチを示している。例として「準備多様な例」「オープンクエスチョン」「小さな試作」「試行錯誤を歓迎」「努力とアイデアを褒める」など、実際に教室で使える具体的手法が順序立てて説明され、学習者が安心して自分の作品を作れる環境を作る方法が詳細に示されている。これらは5点基準に完全に合致し、評価に優れた回答と判断できる。</t>
         </is>
       </c>
     </row>
@@ -1109,11 +1088,11 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>受験者はリサイクル素材を用いて交通手段や動物の模型を作る創造的な活動を提案し、具体的な材料・手順・完成品の用途を詳細に示している。リサイクルの重要性を「Tái chế, bảo vệ môi trường」と明示し、設計思考や協働スキルを育む教育的意義も明確に示している。授業の構成（導入・探究・実践・発表）が段階的で実践的であり、学年・科目への適合性も想定できる。これらの点から5点と評価する。</t>
+          <t>回答はリサイクル素材（紙、段ボール、古いカレンダー）を用いて交通手段や動物の模型を作成するという創造的かつ実現可能な活動を提案している。材料と手順（切り取り、接着、塗装）を具体的に示し、教育的意義としてデザイン思考や協働学習を挙げている。リサイクルと環境保護のメッセージも明確に伝わり、学年・科目に適した授業設計を提示している。しかし、手順の細部や安全対策の説明がやや省略されているため、5点満点には至らない。総合的に見て4点が妥当である。</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1122,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>回答は「体験学習」を「学生が実際に活動に参加し、観察・実験・問題解決を通じて知識を獲得する方法」と明確に定義している。例として「豆を植えて育てる」活動を挙げ、観察・記録・協働の効果を具体的に示している。論理展開は一貫しており、教育的意義も十分に伝わっている。ただし、例が1つに限定されている点がやや不足と判断し、5点ではなく4点と評価した。</t>
+          <t>回答では「体験学習」を「直に活動に参加し、観察・実験で知識を得る」と定義し、概念が正確に把握できている点が評価できる。影響に関しては、豆の種を植え、育成を観察する具体例を挙げ、興味・記憶・協働などの効果を説明している。しかし、評価基準では「複数の具体例とともに詳しく説明」することが5点の条件であるため、1つの例のみでは足りず4点とする。論理の流れは一貫しているが、さらに別の事例を追加すれば5点へと上がる可能性がある。</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1152,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>回答は「Chia sẻ cùng Cô」という授業開始時の共有活動を提案し、学生が順番に興味や課題、アイデアを発表する流れを具体的に示している。活動の実用性と簡便さが強調され、実際に授業で実行できる点が高く評価できる。さらに、コミュニケーション、批判的思考、主体性・創造性といったスキルを明確に列挙し、STEAM教育の精神に沿った学習効果を説明している。独創性はやや一般的な共有活動に留まるものの、教育的意義と実践性が十分に示されているため、5点ではなく4点と判断した。</t>
+          <t>回答は「共有活動」を具体的に提示し、授業開始時に学生が順番に興味・課題・アイデアを発表する流れを明示している。活動の実用性と明確な手順が評価基準に合致し、コミュニケーションや批判的思考、主体性と創造性の育成を具体例で示している。STEAMの精神に沿った学びと生活の結びつきも言及しており、教育的意義が明確に説明されている。創造性の点で完全に優れたものではないが、実践的で実現可能な提案として十分に優秀と判断できる。</t>
         </is>
       </c>
     </row>
@@ -1199,11 +1178,11 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>受験者は授業の流れを明確に示し、グループ活動、ウォームアップ、設計・試作・評価の各段階を具体的に記述している。質問は「なぜ」「どのように」といった具体的な問いで生徒の思考を深め、材料は紙、厚紙、ゴムバンド、吸管など実際に手に入る簡易素材を挙げている。これらはすべてSTEAM教育の実践に即しており、評価基準のすべてを満たしている。</t>
+          <t>受験者の回答は指導計画が明確で、ウォームアップから実験、検証・改善までの流れを示している。質問は具体的で実際に体験したことを問うことで思考を刺激し、材料も紙・硬紙・布・泡など実際に使えるものを挙げている。細部で時間配分や評価基準が不足しているものの、全体として現実的でSTEAMの観点にも合致しているため5点ではなく4点と評価する。</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1212,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>受験者の回答は、まず「例を見せる」ことを提案しつつ、強制せずに個々の創造性を尊重する姿勢を示している。さらに「安全な環境」「試行錯誤の奨励」「多様な例示」「仲間の演示」「個人のアイデアを称賛」など、具体的かつ実行可能なサポート手法を複数挙げている。これらは不安を和らげつつ創造性を促進するという評価基準をすべて満たしており、5点に相当する。</t>
+          <t>受験者は「例を見せる」要望に対して、単に例を提示するだけでなく、学習者が自分のアイデアを自由に発展させられるよう多様な例を示し、創造性を刺激する工夫を具体的に示している。さらに「安全な試行錯誤」や「個人の表現を肯定するフィードバック」といった不安緩和策を複数挙げ、実際に教室で使える具体的な手法を提示している点で、評価基準の「具体性・実行可能性」「創造性促進」両方を十分に満たしている。したがって5点と評価する。</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1242,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>受験者は「プラスチックボトルからのペンケース作り」という具体的かつ実行可能なプロジェクトを提示し、材料・手順を詳細に記述している。リサイクルの重要性を問いかけと学習目標で効果的に伝え、学年・科目に適した授業構成を示している。さらに、創造性・問題解決・環境意識の育成と学際的連携を明示しており、評価基準の全項目を満たしている。</t>
+          <t>受験者は、プラスチックボトルを利用した鉛筆ケースの作成を具体的に示し、使用材料、手順、調整点を詳細に記載している。授業の導入質問と学習目標によりリサイクルの意義が効果的に伝えられ、学年・科目への適応性も高い。さらに、協働、創造性、環境意識の育成と多学科連携を示すことで、教育的価値が十分に担保されている。これらの要素がすべて満たされているため、最高点を付与するに相応しい。</t>
         </is>
       </c>
     </row>
